--- a/econ/Delphi/Итоговые результаты.xlsx
+++ b/econ/Delphi/Итоговые результаты.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="541" documentId="11_AD4DF75460589BCAC7600C37065A43305BDEDD98" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{285B506D-1A82-4780-95AB-2816670C0330}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB874C-F24E-4B68-B4AB-E30104CFFF91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="675" windowWidth="27870" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Корреляция" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
   <si>
     <t>Компонент</t>
   </si>
@@ -106,10 +107,28 @@
     <t>Коэффициент</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Корреляция</t>
   </si>
   <si>
-    <t>Другое</t>
+    <t>Корреляция без первой итерации</t>
+  </si>
+  <si>
+    <t>ср. - откл</t>
+  </si>
+  <si>
+    <t>ср. + откл</t>
+  </si>
+  <si>
+    <t>Min каждый</t>
+  </si>
+  <si>
+    <t>Max каждый</t>
+  </si>
+  <si>
+    <t>Min общий</t>
+  </si>
+  <si>
+    <t>Max общий</t>
   </si>
 </sst>
 </file>
@@ -131,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,14 +241,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -260,7 +273,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -271,27 +286,190 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -300,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -337,20 +515,19 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -359,30 +536,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,7 +596,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -432,17 +628,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Стандартное отклонение (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>по компонентам</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>)</a:t>
+              <a:t>Стандартное отклонение</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -479,9 +665,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -490,113 +675,17 @@
             <c:v>Первая итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$I$3:$I$21</c:f>
@@ -604,7 +693,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>3.4186985827943359</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22.599778759979046</c:v>
@@ -613,16 +702,16 @@
                   <c:v>5.9319052588523364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5</c:v>
+                  <c:v>6.49519052838329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12.99038105676658</c:v>
@@ -631,38 +720,39 @@
                   <c:v>8.1853527718724504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5</c:v>
+                  <c:v>6.1390145789043373</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9938250421546915</c:v>
+                  <c:v>11.224972160321824</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>12.24744871391589</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.1650635094610968</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.3301270189221936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>5.196152422706632</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>16.454482671904334</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>10.63014581273465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4728-492A-8736-E8FB7A27D1EE}"/>
@@ -676,113 +766,17 @@
             <c:v>Вторая итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$O$3:$O$21</c:f>
@@ -849,6 +843,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4728-492A-8736-E8FB7A27D1EE}"/>
@@ -862,113 +857,17 @@
             <c:v>Третья итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$U$3:$U$21</c:f>
@@ -1035,6 +934,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4728-492A-8736-E8FB7A27D1EE}"/>
@@ -1048,113 +948,17 @@
             <c:v>Четвертая итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$AA$3:$AA$21</c:f>
@@ -1221,6 +1025,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4728-492A-8736-E8FB7A27D1EE}"/>
@@ -1235,10 +1040,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:smooth val="0"/>
         <c:axId val="807194240"/>
         <c:axId val="807191616"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="807194240"/>
         <c:scaling>
@@ -1432,7 +1237,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1464,7 +1269,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Средная оценка (по компонентам)</a:t>
+              <a:t>Средная оценка</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1501,9 +1306,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1512,113 +1316,17 @@
             <c:v>Первая итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$H$3:$H$21</c:f>
@@ -1626,7 +1334,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>45.5</c:v>
@@ -1635,16 +1343,16 @@
                   <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.5</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>22.5</c:v>
@@ -1653,38 +1361,39 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.666666666666668</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-73DF-4EE4-95C3-43BA71F22BF2}"/>
@@ -1698,113 +1407,17 @@
             <c:v>Вторая итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$N$3:$N$21</c:f>
@@ -1871,6 +1484,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-73DF-4EE4-95C3-43BA71F22BF2}"/>
@@ -1884,113 +1498,17 @@
             <c:v>Третья итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$T$3:$T$21</c:f>
@@ -2057,6 +1575,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-73DF-4EE4-95C3-43BA71F22BF2}"/>
@@ -2070,113 +1589,17 @@
             <c:v>Четвертая итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$Z$3:$Z$21</c:f>
@@ -2243,6 +1666,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-73DF-4EE4-95C3-43BA71F22BF2}"/>
@@ -2257,10 +1681,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:smooth val="0"/>
         <c:axId val="925136408"/>
         <c:axId val="925133784"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="925136408"/>
         <c:scaling>
@@ -2268,7 +1692,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2310,7 +1733,6 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2455,7 +1877,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2491,13 +1913,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> итерациям </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(по компонентам)</a:t>
+              <a:t> итерациям</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2535,9 +1951,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2546,113 +1961,17 @@
             <c:v>Первая итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$AF$3:$AF$21</c:f>
@@ -2660,7 +1979,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>1.0519072562444109</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.49669843428525373</c:v>
@@ -2669,16 +1988,16 @@
                   <c:v>0.29293359302974503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>1.0392304845413265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.57735026918962573</c:v>
@@ -2687,38 +2006,39 @@
                   <c:v>0.48149133952190887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57894736842105265</c:v>
+                  <c:v>1.2924241218745973</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48181205582971559</c:v>
+                  <c:v>0.80178372573727319</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>1.2247448713915889</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.7320508075688774</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.7320508075688774</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1.7320508075688774</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.7320508075688772</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>1.1811273125260722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-137A-4768-860B-9818C68AB618}"/>
@@ -2732,113 +2052,17 @@
             <c:v>Вторая итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$AI$3:$AI$21</c:f>
@@ -2905,6 +2129,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-137A-4768-860B-9818C68AB618}"/>
@@ -2918,113 +2143,17 @@
             <c:v>Третья итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$AL$3:$AL$21</c:f>
@@ -3091,6 +2220,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-137A-4768-860B-9818C68AB618}"/>
@@ -3104,113 +2234,17 @@
             <c:v>Четвертая итерация</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$3:$C$21</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Тестирование</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Проектирование</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Реализация</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Интеграция</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Документация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Распространение</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Получение</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Модерация</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Монетизация</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Бот</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Сайт</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>БД</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Другое</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$AO$3:$AO$21</c:f>
@@ -3277,6 +2311,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-137A-4768-860B-9818C68AB618}"/>
@@ -3291,10 +2326,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:smooth val="0"/>
         <c:axId val="788951928"/>
         <c:axId val="788950616"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="788951928"/>
         <c:scaling>
@@ -3302,7 +2337,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3485,875 +2519,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Средная оценка (всего проекта)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Лист1!$H$22,Лист1!$N$22,Лист1!$T$22,Лист1!$Z$22)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>180.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>288.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>243.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>236.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D5E-48CD-8529-A0F0F535DDD9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="849544096"/>
-        <c:axId val="849550000"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="849544096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="849550000"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="849550000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="849544096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Стандартное отклонение (всего проекта)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Лист1!$I$22,Лист1!$O$22,Лист1!$U$22,Лист1!$AA$22)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>34.802119188348286</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>133.30510117771186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.947009611371016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.46240577829965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-751C-43C9-AB27-0CDF168EF4A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="849552952"/>
-        <c:axId val="849550328"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="849552952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="849550328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="849550328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="849552952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Коэффициент отклонения по итерациям</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> (всего проекта)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Лист1!$AF$22,Лист1!$AI$22,Лист1!$AL$22,Лист1!$AO$22)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.19254284474881486</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46206274238374995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14747491122613751</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.152019336135016E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F0C0-4117-9683-777EAA121096}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="807266544"/>
-        <c:axId val="807274088"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="807266544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="807274088"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="807274088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="807266544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4474,126 +2639,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6142,1568 +4187,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>62287</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>181068</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270105</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>509430</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>45477</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>925066</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>62795</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7730,16 +4227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>170144</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>178963</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>78751</xdr:rowOff>
+      <xdr:rowOff>150624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>848591</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>931551</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>106446</xdr:rowOff>
+      <xdr:rowOff>178319</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7767,15 +4264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>520054</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38813</xdr:rowOff>
+      <xdr:colOff>364190</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>581688</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>172163</xdr:rowOff>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7795,114 +4292,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>498662</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>68355</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>397809</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>144555</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EE38B6-B550-4054-8391-14E36F368D3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1036543</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>113179</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1002926</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>189379</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A8D14A-454E-4DE8-95B5-345BDD3B8598}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>140073</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>113178</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>173691</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>189378</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB7665C8-8FB6-4F1B-9798-78354A91E450}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8174,10 +4563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BC3" sqref="BC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8222,71 +4611,72 @@
     <col min="39" max="39" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="29" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="31" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="29" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AD1" s="28" t="s">
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AD1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="29" t="s">
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="28" t="s">
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="29" t="s">
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
     </row>
-    <row r="2" spans="1:41" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+    <row r="2" spans="1:56" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
@@ -8360,44 +4750,83 @@
         <v>23</v>
       </c>
       <c r="AB2" s="16"/>
-      <c r="AD2" s="22" t="s">
+      <c r="AD2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="22" t="s">
+      <c r="AE2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AF2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="22" t="s">
+      <c r="AH2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="22" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="AL2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="AM2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AN2" s="22" t="s">
+      <c r="AN2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AO2" s="22" t="s">
+      <c r="AO2" s="24" t="s">
         <v>25</v>
       </c>
+      <c r="AR2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX2" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY2" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ2" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA2" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB2" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC2" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="BD2" s="50" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
@@ -8413,19 +4842,19 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
       </c>
       <c r="H3" s="13">
         <f>AVERAGE(D3:G3)</f>
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="I3" s="18">
         <f>STDEV(D3:H3)</f>
-        <v>1.5</v>
+        <v>3.4186985827943359</v>
       </c>
       <c r="J3" s="1">
         <v>5</v>
@@ -8488,47 +4917,89 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="AD3" s="23">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="AE3" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="AF3" s="11">
+        <v>3.4186985827943359</v>
+      </c>
+      <c r="AF3" s="22">
         <f>AE3/AD3</f>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="AG3" s="24">
+        <v>1.0519072562444109</v>
+      </c>
+      <c r="AG3">
         <v>9.25</v>
       </c>
-      <c r="AH3" s="24">
+      <c r="AH3">
         <v>4.0850336595920478</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="22">
         <f>AH3/AG3</f>
         <v>0.44162526049643758</v>
       </c>
-      <c r="AJ3" s="24">
+      <c r="AJ3">
         <v>6.25</v>
       </c>
-      <c r="AK3" s="24">
+      <c r="AK3">
         <v>1.7853571071357126</v>
       </c>
-      <c r="AL3" s="11">
+      <c r="AL3" s="22">
         <f>AK3/AJ3</f>
         <v>0.28565713714171403</v>
       </c>
-      <c r="AM3" s="24">
+      <c r="AM3">
         <v>6</v>
       </c>
-      <c r="AN3" s="24">
+      <c r="AN3">
         <v>0.70710678118654757</v>
       </c>
-      <c r="AO3" s="11">
+      <c r="AO3" s="22">
         <f>AN3/AM3</f>
         <v>0.11785113019775793</v>
       </c>
+      <c r="AR3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU3" s="37">
+        <v>6</v>
+      </c>
+      <c r="AV3" s="43">
+        <f t="shared" ref="AV3:AV22" si="1">AVERAGE(AR3:AU3)</f>
+        <v>6</v>
+      </c>
+      <c r="AW3" s="40">
+        <f>STDEV(AR3:AV3)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="AX3" s="46">
+        <f>AW3/AV3</f>
+        <v>0.11785113019775793</v>
+      </c>
+      <c r="AY3" s="51">
+        <f>MIN(AR3:AU3)</f>
+        <v>5</v>
+      </c>
+      <c r="AZ3" s="52">
+        <f>MAX(AR3:AU3)</f>
+        <v>7</v>
+      </c>
+      <c r="BA3" s="51">
+        <f>AV3-AW3</f>
+        <v>5.2928932188134521</v>
+      </c>
+      <c r="BB3" s="52">
+        <f>AV3+AW3</f>
+        <v>6.7071067811865479</v>
+      </c>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="48"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="20" t="s">
@@ -8547,11 +5018,11 @@
         <v>80</v>
       </c>
       <c r="H4" s="13">
-        <f t="shared" ref="H4:H22" si="1">AVERAGE(D4:G4)</f>
+        <f t="shared" ref="H4:H22" si="2">AVERAGE(D4:G4)</f>
         <v>45.5</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I22" si="2">STDEV(D4:H4)</f>
+        <f t="shared" ref="I4:I22" si="3">STDEV(D4:H4)</f>
         <v>22.599778759979046</v>
       </c>
       <c r="J4" s="1">
@@ -8567,11 +5038,11 @@
         <v>32</v>
       </c>
       <c r="N4" s="13">
-        <f t="shared" ref="N4:N22" si="3">AVERAGE(J4:M4)</f>
+        <f t="shared" ref="N4:N22" si="4">AVERAGE(J4:M4)</f>
         <v>33</v>
       </c>
       <c r="O4" s="18">
-        <f t="shared" ref="O4:O22" si="4">STDEV(J4:N4)</f>
+        <f t="shared" ref="O4:O22" si="5">STDEV(J4:N4)</f>
         <v>7.3824115301167001</v>
       </c>
       <c r="P4" s="1">
@@ -8587,11 +5058,11 @@
         <v>32</v>
       </c>
       <c r="T4" s="14">
-        <f t="shared" ref="T4:T22" si="5">AVERAGE(P4:S4)</f>
+        <f t="shared" ref="T4:T22" si="6">AVERAGE(P4:S4)</f>
         <v>31.25</v>
       </c>
       <c r="U4" s="18">
-        <f t="shared" ref="U4:U21" si="6">STDEV(P4:T4)</f>
+        <f t="shared" ref="U4:U21" si="7">STDEV(P4:T4)</f>
         <v>1.299038105676658</v>
       </c>
       <c r="V4" s="2">
@@ -8611,7 +5082,7 @@
         <v>31.25</v>
       </c>
       <c r="AA4" s="18">
-        <f t="shared" ref="AA4:AA22" si="7">STDEV(V4:Z4)</f>
+        <f t="shared" ref="AA4:AA22" si="8">STDEV(V4:Z4)</f>
         <v>1.299038105676658</v>
       </c>
       <c r="AD4" s="23">
@@ -8620,42 +5091,84 @@
       <c r="AE4" s="23">
         <v>22.599778759979046</v>
       </c>
-      <c r="AF4" s="11">
-        <f t="shared" ref="AF4:AF22" si="8">AE4/AD4</f>
+      <c r="AF4" s="22">
+        <f t="shared" ref="AF4:AF21" si="9">AE4/AD4</f>
         <v>0.49669843428525373</v>
       </c>
-      <c r="AG4" s="24">
+      <c r="AG4">
         <v>33</v>
       </c>
-      <c r="AH4" s="24">
+      <c r="AH4">
         <v>7.3824115301167001</v>
       </c>
-      <c r="AI4" s="11">
-        <f t="shared" ref="AI4:AI22" si="9">AH4/AG4</f>
+      <c r="AI4" s="22">
+        <f t="shared" ref="AI4:AI21" si="10">AH4/AG4</f>
         <v>0.22370944030656667</v>
       </c>
-      <c r="AJ4" s="24">
+      <c r="AJ4">
         <v>31.25</v>
       </c>
-      <c r="AK4" s="24">
+      <c r="AK4">
         <v>1.299038105676658</v>
       </c>
-      <c r="AL4" s="11">
-        <f t="shared" ref="AL4:AL22" si="10">AK4/AJ4</f>
+      <c r="AL4" s="22">
+        <f t="shared" ref="AL4:AL21" si="11">AK4/AJ4</f>
         <v>4.1569219381653054E-2</v>
       </c>
-      <c r="AM4" s="24">
+      <c r="AM4">
         <v>31.25</v>
       </c>
-      <c r="AN4" s="24">
+      <c r="AN4">
         <v>1.299038105676658</v>
       </c>
-      <c r="AO4" s="11">
-        <f t="shared" ref="AO4:AO22" si="11">AN4/AM4</f>
+      <c r="AO4" s="22">
+        <f t="shared" ref="AO4:AO21" si="12">AN4/AM4</f>
         <v>4.1569219381653054E-2</v>
       </c>
+      <c r="AR4" s="2">
+        <v>30</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>33</v>
+      </c>
+      <c r="AU4" s="37">
+        <v>32</v>
+      </c>
+      <c r="AV4" s="43">
+        <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
+      <c r="AW4" s="40">
+        <f t="shared" ref="AW4:AW22" si="13">STDEV(AR4:AV4)</f>
+        <v>1.299038105676658</v>
+      </c>
+      <c r="AX4" s="46">
+        <f t="shared" ref="AX4:AX22" si="14">AW4/AV4</f>
+        <v>4.1569219381653054E-2</v>
+      </c>
+      <c r="AY4" s="51">
+        <f t="shared" ref="AY4:AZ21" si="15">MIN(AR4:AU4)</f>
+        <v>30</v>
+      </c>
+      <c r="AZ4" s="52">
+        <f t="shared" ref="AZ4:AZ21" si="16">MAX(AR4:AU4)</f>
+        <v>33</v>
+      </c>
+      <c r="BA4" s="51">
+        <f>AV4-AW4</f>
+        <v>29.950961894323342</v>
+      </c>
+      <c r="BB4" s="52">
+        <f>AV4+AW4</f>
+        <v>32.549038105676658</v>
+      </c>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="48"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="20" t="s">
@@ -8674,11 +5187,11 @@
         <v>30</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.25</v>
       </c>
       <c r="I5" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9319052588523364</v>
       </c>
       <c r="J5" s="1">
@@ -8694,11 +5207,11 @@
         <v>8</v>
       </c>
       <c r="N5" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.25</v>
       </c>
       <c r="O5" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5483513496650634</v>
       </c>
       <c r="P5" s="1">
@@ -8714,11 +5227,11 @@
         <v>16</v>
       </c>
       <c r="T5" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.25</v>
       </c>
       <c r="U5" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.920286436967152</v>
       </c>
       <c r="V5" s="2">
@@ -8738,7 +5251,7 @@
         <v>17</v>
       </c>
       <c r="AA5" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AD5" s="23">
@@ -8747,42 +5260,84 @@
       <c r="AE5" s="23">
         <v>5.9319052588523364</v>
       </c>
-      <c r="AF5" s="11">
-        <f t="shared" si="8"/>
+      <c r="AF5" s="22">
+        <f t="shared" si="9"/>
         <v>0.29293359302974503</v>
       </c>
-      <c r="AG5" s="24">
+      <c r="AG5">
         <v>15.25</v>
       </c>
-      <c r="AH5" s="24">
+      <c r="AH5">
         <v>4.5483513496650634</v>
       </c>
-      <c r="AI5" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI5" s="22">
+        <f t="shared" si="10"/>
         <v>0.29825254751902053</v>
       </c>
-      <c r="AJ5" s="24">
+      <c r="AJ5">
         <v>17.25</v>
       </c>
-      <c r="AK5" s="24">
+      <c r="AK5">
         <v>1.920286436967152</v>
       </c>
-      <c r="AL5" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL5" s="22">
+        <f t="shared" si="11"/>
         <v>0.11132095286766099</v>
       </c>
-      <c r="AM5" s="24">
+      <c r="AM5">
         <v>17</v>
       </c>
-      <c r="AN5" s="24">
+      <c r="AN5">
         <v>1</v>
       </c>
-      <c r="AO5" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO5" s="22">
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
+      <c r="AR5" s="2">
+        <v>18</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>16</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>18</v>
+      </c>
+      <c r="AU5" s="37">
+        <v>16</v>
+      </c>
+      <c r="AV5" s="43">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AW5" s="40">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AX5" s="46">
+        <f t="shared" si="14"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="AY5" s="51">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="AZ5" s="52">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="BA5" s="51">
+        <f>AV5-AW5</f>
+        <v>16</v>
+      </c>
+      <c r="BB5" s="52">
+        <f>AV5+AW5</f>
+        <v>18</v>
+      </c>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="48"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32" t="s">
         <v>6</v>
@@ -8796,19 +5351,19 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
       </c>
       <c r="H6" s="13">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="I6" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
@@ -8823,11 +5378,11 @@
         <v>8</v>
       </c>
       <c r="N6" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="O6" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8405728739343039</v>
       </c>
       <c r="P6" s="1">
@@ -8843,11 +5398,11 @@
         <v>4</v>
       </c>
       <c r="T6" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="U6" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="V6" s="2">
@@ -8867,51 +5422,93 @@
         <v>4</v>
       </c>
       <c r="AA6" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="23">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="24">
+      <c r="AD6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG6">
         <v>6.5</v>
       </c>
-      <c r="AH6" s="24">
+      <c r="AH6">
         <v>3.8405728739343039</v>
       </c>
-      <c r="AI6" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI6" s="22">
+        <f t="shared" si="10"/>
         <v>0.59085736522066212</v>
       </c>
-      <c r="AJ6" s="24">
+      <c r="AJ6">
         <v>4</v>
       </c>
-      <c r="AK6" s="24">
+      <c r="AK6">
         <v>1.4142135623730951</v>
       </c>
-      <c r="AL6" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL6" s="22">
+        <f t="shared" si="11"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AM6" s="24">
+      <c r="AM6">
         <v>4</v>
       </c>
-      <c r="AN6" s="24">
+      <c r="AN6">
         <v>0</v>
       </c>
-      <c r="AO6" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO6" s="22">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="AR6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="37">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AW6" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AY6" s="51">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AZ6" s="52">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="BA6" s="51">
+        <f>AV6-AW6</f>
+        <v>4</v>
+      </c>
+      <c r="BB6" s="52">
+        <f>AV6+AW6</f>
+        <v>4</v>
+      </c>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="48"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="20" t="s">
@@ -8923,19 +5520,19 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>6.25</v>
       </c>
       <c r="I7" s="18">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>6.49519052838329</v>
       </c>
       <c r="J7" s="1">
         <v>5</v>
@@ -8950,11 +5547,11 @@
         <v>16</v>
       </c>
       <c r="N7" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="O7" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.271319292087069</v>
       </c>
       <c r="P7" s="1">
@@ -8970,11 +5567,11 @@
         <v>16</v>
       </c>
       <c r="T7" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="U7" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9370039370059056</v>
       </c>
       <c r="V7" s="2">
@@ -8994,51 +5591,93 @@
         <v>9</v>
       </c>
       <c r="AA7" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AD7" s="23">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="AE7" s="23">
-        <v>2.5</v>
-      </c>
-      <c r="AF7" s="11">
-        <f t="shared" si="8"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG7" s="24">
+        <v>6.49519052838329</v>
+      </c>
+      <c r="AF7" s="22">
+        <f t="shared" si="9"/>
+        <v>1.0392304845413265</v>
+      </c>
+      <c r="AG7">
         <v>14</v>
       </c>
-      <c r="AH7" s="24">
+      <c r="AH7">
         <v>10.271319292087069</v>
       </c>
-      <c r="AI7" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI7" s="22">
+        <f t="shared" si="10"/>
         <v>0.7336656637205049</v>
       </c>
-      <c r="AJ7" s="24">
+      <c r="AJ7">
         <v>10</v>
       </c>
-      <c r="AK7" s="24">
+      <c r="AK7">
         <v>3.9370039370059056</v>
       </c>
-      <c r="AL7" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL7" s="22">
+        <f t="shared" si="11"/>
         <v>0.39370039370059057</v>
       </c>
-      <c r="AM7" s="24">
+      <c r="AM7">
         <v>9</v>
       </c>
-      <c r="AN7" s="24">
+      <c r="AN7">
         <v>1</v>
       </c>
-      <c r="AO7" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO7" s="22">
+        <f t="shared" si="12"/>
         <v>0.1111111111111111</v>
       </c>
+      <c r="AR7" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU7" s="37">
+        <v>10</v>
+      </c>
+      <c r="AV7" s="43">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AW7" s="40">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AX7" s="46">
+        <f t="shared" si="14"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AY7" s="51">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AZ7" s="52">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="BA7" s="51">
+        <f>AV7-AW7</f>
+        <v>8</v>
+      </c>
+      <c r="BB7" s="52">
+        <f>AV7+AW7</f>
+        <v>10</v>
+      </c>
+      <c r="BC7" s="47"/>
+      <c r="BD7" s="48"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="20" t="s">
@@ -9050,19 +5689,19 @@
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I8" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="J8" s="1">
         <v>5</v>
@@ -9077,11 +5716,11 @@
         <v>8</v>
       </c>
       <c r="N8" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.75</v>
       </c>
       <c r="O8" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2240916383999449</v>
       </c>
       <c r="P8" s="1">
@@ -9097,11 +5736,11 @@
         <v>12</v>
       </c>
       <c r="T8" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="U8" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9154759474226504</v>
       </c>
       <c r="V8" s="2">
@@ -9121,55 +5760,97 @@
         <v>8</v>
       </c>
       <c r="AA8" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="23">
-        <v>10</v>
-      </c>
-      <c r="AE8" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="24">
+      <c r="AD8" s="23">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="23">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG8">
         <v>9.75</v>
       </c>
-      <c r="AH8" s="24">
+      <c r="AH8">
         <v>7.2240916383999449</v>
       </c>
-      <c r="AI8" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI8" s="22">
+        <f t="shared" si="10"/>
         <v>0.74093247573332766</v>
       </c>
-      <c r="AJ8" s="24">
+      <c r="AJ8">
         <v>8</v>
       </c>
-      <c r="AK8" s="24">
+      <c r="AK8">
         <v>2.9154759474226504</v>
       </c>
-      <c r="AL8" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL8" s="22">
+        <f t="shared" si="11"/>
         <v>0.3644344934278313</v>
       </c>
-      <c r="AM8" s="24">
+      <c r="AM8">
         <v>8</v>
       </c>
-      <c r="AN8" s="24">
+      <c r="AN8">
         <v>0</v>
       </c>
-      <c r="AO8" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO8" s="22">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
+      <c r="AR8" s="2">
+        <v>8</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU8" s="37">
+        <v>8</v>
+      </c>
+      <c r="AV8" s="43">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AW8" s="40">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="51">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AZ8" s="52">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="BA8" s="51">
+        <f>AV8-AW8</f>
+        <v>8</v>
+      </c>
+      <c r="BB8" s="52">
+        <f>AV8+AW8</f>
+        <v>8</v>
+      </c>
+      <c r="BC8" s="47"/>
+      <c r="BD8" s="48"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -9181,19 +5862,19 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="I9" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
@@ -9208,11 +5889,11 @@
         <v>4</v>
       </c>
       <c r="N9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.25</v>
       </c>
       <c r="O9" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1659945799429563</v>
       </c>
       <c r="P9" s="1">
@@ -9228,11 +5909,11 @@
         <v>4</v>
       </c>
       <c r="T9" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.25</v>
       </c>
       <c r="U9" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.479019945774904</v>
       </c>
       <c r="V9" s="2">
@@ -9252,53 +5933,95 @@
         <v>6.25</v>
       </c>
       <c r="AA9" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4330127018922193</v>
       </c>
       <c r="AD9" s="23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE9" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="24">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="22">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG9">
         <v>7.25</v>
       </c>
-      <c r="AH9" s="24">
+      <c r="AH9">
         <v>5.1659945799429563</v>
       </c>
-      <c r="AI9" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI9" s="22">
+        <f t="shared" si="10"/>
         <v>0.71255097654385602</v>
       </c>
-      <c r="AJ9" s="24">
+      <c r="AJ9">
         <v>6.25</v>
       </c>
-      <c r="AK9" s="24">
+      <c r="AK9">
         <v>1.479019945774904</v>
       </c>
-      <c r="AL9" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL9" s="22">
+        <f t="shared" si="11"/>
         <v>0.23664319132398465</v>
       </c>
-      <c r="AM9" s="24">
+      <c r="AM9">
         <v>6.25</v>
       </c>
-      <c r="AN9" s="24">
+      <c r="AN9">
         <v>0.4330127018922193</v>
       </c>
-      <c r="AO9" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO9" s="22">
+        <f t="shared" si="12"/>
         <v>6.9282032302755092E-2</v>
       </c>
+      <c r="AR9" s="2">
+        <v>7</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>6</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU9" s="37">
+        <v>6</v>
+      </c>
+      <c r="AV9" s="43">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="AW9" s="40">
+        <f t="shared" si="13"/>
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="AX9" s="46">
+        <f t="shared" si="14"/>
+        <v>6.9282032302755092E-2</v>
+      </c>
+      <c r="AY9" s="51">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AZ9" s="52">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="BA9" s="51">
+        <f>AV9-AW9</f>
+        <v>5.8169872981077804</v>
+      </c>
+      <c r="BB9" s="52">
+        <f>AV9+AW9</f>
+        <v>6.6830127018922196</v>
+      </c>
+      <c r="BC9" s="47"/>
+      <c r="BD9" s="48"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="21" t="s">
         <v>4</v>
       </c>
@@ -9315,11 +6038,11 @@
         <v>10</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
       <c r="I10" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.99038105676658</v>
       </c>
       <c r="J10" s="1">
@@ -9335,11 +6058,11 @@
         <v>8</v>
       </c>
       <c r="N10" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.75</v>
       </c>
       <c r="O10" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.428704030508076</v>
       </c>
       <c r="P10" s="1">
@@ -9355,11 +6078,11 @@
         <v>8</v>
       </c>
       <c r="T10" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.75</v>
       </c>
       <c r="U10" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0133800695527686</v>
       </c>
       <c r="V10" s="2">
@@ -9379,7 +6102,7 @@
         <v>15.25</v>
       </c>
       <c r="AA10" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4330127018922193</v>
       </c>
       <c r="AD10" s="23">
@@ -9388,44 +6111,86 @@
       <c r="AE10" s="23">
         <v>12.99038105676658</v>
       </c>
-      <c r="AF10" s="11">
-        <f t="shared" si="8"/>
+      <c r="AF10" s="22">
+        <f t="shared" si="9"/>
         <v>0.57735026918962573</v>
       </c>
-      <c r="AG10" s="24">
+      <c r="AG10">
         <v>21.75</v>
       </c>
-      <c r="AH10" s="24">
+      <c r="AH10">
         <v>14.428704030508076</v>
       </c>
-      <c r="AI10" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI10" s="22">
+        <f t="shared" si="10"/>
         <v>0.66338869105784259</v>
       </c>
-      <c r="AJ10" s="24">
+      <c r="AJ10">
         <v>15.75</v>
       </c>
-      <c r="AK10" s="24">
+      <c r="AK10">
         <v>7.0133800695527686</v>
       </c>
-      <c r="AL10" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL10" s="22">
+        <f t="shared" si="11"/>
         <v>0.44529397267001708</v>
       </c>
-      <c r="AM10" s="24">
+      <c r="AM10">
         <v>15.25</v>
       </c>
-      <c r="AN10" s="24">
+      <c r="AN10">
         <v>0.4330127018922193</v>
       </c>
-      <c r="AO10" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO10" s="22">
+        <f t="shared" si="12"/>
         <v>2.8394275533916019E-2</v>
       </c>
+      <c r="AR10" s="2">
+        <v>15</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>15</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>15</v>
+      </c>
+      <c r="AU10" s="37">
+        <v>16</v>
+      </c>
+      <c r="AV10" s="43">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+      <c r="AW10" s="40">
+        <f t="shared" si="13"/>
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="AX10" s="46">
+        <f t="shared" si="14"/>
+        <v>2.8394275533916019E-2</v>
+      </c>
+      <c r="AY10" s="51">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="AZ10" s="52">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="BA10" s="51">
+        <f>AV10-AW10</f>
+        <v>14.816987298107781</v>
+      </c>
+      <c r="BB10" s="52">
+        <f>AV10+AW10</f>
+        <v>15.683012701892219</v>
+      </c>
+      <c r="BC10" s="47"/>
+      <c r="BD10" s="48"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="21" t="s">
         <v>5</v>
       </c>
@@ -9442,11 +6207,11 @@
         <v>10</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.1853527718724504</v>
       </c>
       <c r="J11" s="1">
@@ -9462,11 +6227,11 @@
         <v>4</v>
       </c>
       <c r="N11" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.75</v>
       </c>
       <c r="O11" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.045593125649749</v>
       </c>
       <c r="P11" s="1">
@@ -9482,11 +6247,11 @@
         <v>8</v>
       </c>
       <c r="T11" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="U11" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4420493633625631</v>
       </c>
       <c r="V11" s="2">
@@ -9506,7 +6271,7 @@
         <v>10.25</v>
       </c>
       <c r="AA11" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0897247358851685</v>
       </c>
       <c r="AD11" s="23">
@@ -9515,44 +6280,86 @@
       <c r="AE11" s="23">
         <v>8.1853527718724504</v>
       </c>
-      <c r="AF11" s="11">
-        <f t="shared" si="8"/>
+      <c r="AF11" s="22">
+        <f t="shared" si="9"/>
         <v>0.48149133952190887</v>
       </c>
-      <c r="AG11" s="24">
+      <c r="AG11">
         <v>13.75</v>
       </c>
-      <c r="AH11" s="24">
+      <c r="AH11">
         <v>13.045593125649749</v>
       </c>
-      <c r="AI11" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI11" s="22">
+        <f t="shared" si="10"/>
         <v>0.94877040913816357</v>
       </c>
-      <c r="AJ11" s="24">
+      <c r="AJ11">
         <v>12</v>
       </c>
-      <c r="AK11" s="24">
+      <c r="AK11">
         <v>6.4420493633625631</v>
       </c>
-      <c r="AL11" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL11" s="22">
+        <f t="shared" si="11"/>
         <v>0.53683744694688029</v>
       </c>
-      <c r="AM11" s="24">
+      <c r="AM11">
         <v>10.25</v>
       </c>
-      <c r="AN11" s="24">
+      <c r="AN11">
         <v>1.0897247358851685</v>
       </c>
-      <c r="AO11" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO11" s="22">
+        <f t="shared" si="12"/>
         <v>0.10631460837904083</v>
       </c>
+      <c r="AR11" s="2">
+        <v>9</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>10</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>10</v>
+      </c>
+      <c r="AU11" s="37">
+        <v>12</v>
+      </c>
+      <c r="AV11" s="43">
+        <f t="shared" si="1"/>
+        <v>10.25</v>
+      </c>
+      <c r="AW11" s="40">
+        <f t="shared" si="13"/>
+        <v>1.0897247358851685</v>
+      </c>
+      <c r="AX11" s="46">
+        <f t="shared" si="14"/>
+        <v>0.10631460837904083</v>
+      </c>
+      <c r="AY11" s="51">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="AZ11" s="52">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="BA11" s="51">
+        <f>AV11-AW11</f>
+        <v>9.1602752641148317</v>
+      </c>
+      <c r="BB11" s="52">
+        <f>AV11+AW11</f>
+        <v>11.339724735885168</v>
+      </c>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="48"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -9564,19 +6371,19 @@
       <c r="E12" s="1">
         <v>15</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>26</v>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
       <c r="H12" s="13">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
+        <f t="shared" si="2"/>
+        <v>4.75</v>
       </c>
       <c r="I12" s="18">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
+        <f t="shared" si="3"/>
+        <v>6.1390145789043373</v>
       </c>
       <c r="J12" s="1">
         <v>3</v>
@@ -9591,11 +6398,11 @@
         <v>4</v>
       </c>
       <c r="N12" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="O12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.9056941504209481</v>
       </c>
       <c r="P12" s="1">
@@ -9611,11 +6418,11 @@
         <v>4</v>
       </c>
       <c r="T12" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="U12" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7169905660283016</v>
       </c>
       <c r="V12" s="2">
@@ -9635,53 +6442,95 @@
         <v>6.75</v>
       </c>
       <c r="AA12" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.299038105676658</v>
       </c>
       <c r="AD12" s="23">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="AE12" s="23">
-        <v>5.5</v>
-      </c>
-      <c r="AF12" s="11">
-        <f t="shared" si="8"/>
-        <v>0.57894736842105265</v>
-      </c>
-      <c r="AG12" s="24">
+        <v>6.1390145789043373</v>
+      </c>
+      <c r="AF12" s="22">
+        <f t="shared" si="9"/>
+        <v>1.2924241218745973</v>
+      </c>
+      <c r="AG12">
         <v>11</v>
       </c>
-      <c r="AH12" s="24">
+      <c r="AH12">
         <v>7.9056941504209481</v>
       </c>
-      <c r="AI12" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI12" s="22">
+        <f t="shared" si="10"/>
         <v>0.71869946822008623</v>
       </c>
-      <c r="AJ12" s="24">
+      <c r="AJ12">
         <v>7.5</v>
       </c>
-      <c r="AK12" s="24">
+      <c r="AK12">
         <v>4.7169905660283016</v>
       </c>
-      <c r="AL12" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL12" s="22">
+        <f t="shared" si="11"/>
         <v>0.62893207547044017</v>
       </c>
-      <c r="AM12" s="24">
+      <c r="AM12">
         <v>6.75</v>
       </c>
-      <c r="AN12" s="24">
+      <c r="AN12">
         <v>1.299038105676658</v>
       </c>
-      <c r="AO12" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO12" s="22">
+        <f t="shared" si="12"/>
         <v>0.19245008972987526</v>
       </c>
+      <c r="AR12" s="2">
+        <v>5</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>8</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU12" s="37">
+        <v>8</v>
+      </c>
+      <c r="AV12" s="43">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
+      </c>
+      <c r="AW12" s="40">
+        <f t="shared" si="13"/>
+        <v>1.299038105676658</v>
+      </c>
+      <c r="AX12" s="46">
+        <f t="shared" si="14"/>
+        <v>0.19245008972987526</v>
+      </c>
+      <c r="AY12" s="51">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AZ12" s="52">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="BA12" s="51">
+        <f>AV12-AW12</f>
+        <v>5.450961894323342</v>
+      </c>
+      <c r="BB12" s="52">
+        <f>AV12+AW12</f>
+        <v>8.049038105676658</v>
+      </c>
+      <c r="BC12" s="47"/>
+      <c r="BD12" s="48"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="21" t="s">
         <v>4</v>
       </c>
@@ -9694,16 +6543,16 @@
       <c r="F13" s="1">
         <v>18</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
+      <c r="G13" s="1">
+        <v>0</v>
       </c>
       <c r="H13" s="13">
-        <f t="shared" si="1"/>
-        <v>18.666666666666668</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="I13" s="18">
-        <f t="shared" si="2"/>
-        <v>8.9938250421546915</v>
+        <f t="shared" si="3"/>
+        <v>11.224972160321824</v>
       </c>
       <c r="J13" s="1">
         <v>10</v>
@@ -9718,11 +6567,11 @@
         <v>16</v>
       </c>
       <c r="N13" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="O13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.202678251204039</v>
       </c>
       <c r="P13" s="1">
@@ -9738,11 +6587,11 @@
         <v>24</v>
       </c>
       <c r="T13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.75</v>
       </c>
       <c r="U13" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.9319052588523364</v>
       </c>
       <c r="V13" s="2">
@@ -9762,53 +6611,95 @@
         <v>15.75</v>
       </c>
       <c r="AA13" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6314597615834874</v>
       </c>
       <c r="AD13" s="23">
-        <v>18.666666666666668</v>
+        <v>14</v>
       </c>
       <c r="AE13" s="23">
-        <v>8.9938250421546915</v>
-      </c>
-      <c r="AF13" s="11">
-        <f t="shared" si="8"/>
-        <v>0.48181205582971559</v>
-      </c>
-      <c r="AG13" s="24">
+        <v>11.224972160321824</v>
+      </c>
+      <c r="AF13" s="22">
+        <f t="shared" si="9"/>
+        <v>0.80178372573727319</v>
+      </c>
+      <c r="AG13">
         <v>24</v>
       </c>
-      <c r="AH13" s="24">
+      <c r="AH13">
         <v>11.202678251204039</v>
       </c>
-      <c r="AI13" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI13" s="22">
+        <f t="shared" si="10"/>
         <v>0.46677826046683496</v>
       </c>
-      <c r="AJ13" s="24">
+      <c r="AJ13">
         <v>19.75</v>
       </c>
-      <c r="AK13" s="24">
+      <c r="AK13">
         <v>5.9319052588523364</v>
       </c>
-      <c r="AL13" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL13" s="22">
+        <f t="shared" si="11"/>
         <v>0.30034963335961196</v>
       </c>
-      <c r="AM13" s="24">
+      <c r="AM13">
         <v>15.75</v>
       </c>
-      <c r="AN13" s="24">
+      <c r="AN13">
         <v>3.6314597615834874</v>
       </c>
-      <c r="AO13" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO13" s="22">
+        <f t="shared" si="12"/>
         <v>0.23056887375133253</v>
       </c>
+      <c r="AR13" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>20</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>17</v>
+      </c>
+      <c r="AU13" s="37">
+        <v>16</v>
+      </c>
+      <c r="AV13" s="43">
+        <f t="shared" si="1"/>
+        <v>15.75</v>
+      </c>
+      <c r="AW13" s="40">
+        <f t="shared" si="13"/>
+        <v>3.6314597615834874</v>
+      </c>
+      <c r="AX13" s="46">
+        <f t="shared" si="14"/>
+        <v>0.23056887375133253</v>
+      </c>
+      <c r="AY13" s="51">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AZ13" s="52">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="BA13" s="51">
+        <f>AV13-AW13</f>
+        <v>12.118540238416513</v>
+      </c>
+      <c r="BB13" s="52">
+        <f>AV13+AW13</f>
+        <v>19.381459761583486</v>
+      </c>
+      <c r="BC13" s="47"/>
+      <c r="BD13" s="48"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="21" t="s">
         <v>5</v>
       </c>
@@ -9818,20 +6709,20 @@
       <c r="E14" s="1">
         <v>30</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I14" s="18">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="I14" s="18">
+        <f t="shared" si="3"/>
+        <v>12.24744871391589</v>
+      </c>
       <c r="J14" s="1">
         <v>7</v>
       </c>
@@ -9845,11 +6736,11 @@
         <v>8</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="O14" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.313392831113555</v>
       </c>
       <c r="P14" s="1">
@@ -9865,11 +6756,11 @@
         <v>20</v>
       </c>
       <c r="T14" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="U14" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.2649820430708338</v>
       </c>
       <c r="V14" s="2">
@@ -9889,77 +6780,119 @@
         <v>15.75</v>
       </c>
       <c r="AA14" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2776083947860748</v>
       </c>
       <c r="AD14" s="23">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="23">
+        <v>12.24744871391589</v>
+      </c>
+      <c r="AF14" s="22">
+        <f t="shared" si="9"/>
+        <v>1.2247448713915889</v>
+      </c>
+      <c r="AG14">
         <v>20</v>
       </c>
-      <c r="AE14" s="23">
-        <v>10</v>
-      </c>
-      <c r="AF14" s="11">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="AG14" s="24">
-        <v>20</v>
-      </c>
-      <c r="AH14" s="24">
+      <c r="AH14">
         <v>15.313392831113555</v>
       </c>
-      <c r="AI14" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI14" s="22">
+        <f t="shared" si="10"/>
         <v>0.76566964155567774</v>
       </c>
-      <c r="AJ14" s="24">
+      <c r="AJ14">
         <v>17.5</v>
       </c>
-      <c r="AK14" s="24">
+      <c r="AK14">
         <v>6.2649820430708338</v>
       </c>
-      <c r="AL14" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL14" s="22">
+        <f t="shared" si="11"/>
         <v>0.35799897388976193</v>
       </c>
-      <c r="AM14" s="24">
+      <c r="AM14">
         <v>15.75</v>
       </c>
-      <c r="AN14" s="24">
+      <c r="AN14">
         <v>2.2776083947860748</v>
       </c>
-      <c r="AO14" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO14" s="22">
+        <f t="shared" si="12"/>
         <v>0.14461005681181427</v>
       </c>
+      <c r="AR14" s="2">
+        <v>12</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>17</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>18</v>
+      </c>
+      <c r="AU14" s="37">
+        <v>16</v>
+      </c>
+      <c r="AV14" s="43">
+        <f t="shared" si="1"/>
+        <v>15.75</v>
+      </c>
+      <c r="AW14" s="40">
+        <f t="shared" si="13"/>
+        <v>2.2776083947860748</v>
+      </c>
+      <c r="AX14" s="46">
+        <f t="shared" si="14"/>
+        <v>0.14461005681181427</v>
+      </c>
+      <c r="AY14" s="51">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="AZ14" s="52">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="BA14" s="51">
+        <f>AV14-AW14</f>
+        <v>13.472391605213925</v>
+      </c>
+      <c r="BB14" s="52">
+        <f>AV14+AW14</f>
+        <v>18.027608394786075</v>
+      </c>
+      <c r="BC14" s="47"/>
+      <c r="BD14" s="48"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="18" t="e">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
@@ -9974,11 +6907,11 @@
         <v>4</v>
       </c>
       <c r="N15" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.25</v>
       </c>
       <c r="O15" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8613807855648994</v>
       </c>
       <c r="P15" s="1">
@@ -9994,11 +6927,11 @@
         <v>4</v>
       </c>
       <c r="T15" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
       <c r="U15" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6583123951776999</v>
       </c>
       <c r="V15" s="2">
@@ -10018,75 +6951,116 @@
         <v>3.5</v>
       </c>
       <c r="AA15" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="AD15" s="23" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE15" s="23" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF15" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG15" s="24">
+      <c r="AD15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG15">
         <v>4.25</v>
       </c>
-      <c r="AH15" s="24">
+      <c r="AH15">
         <v>2.8613807855648994</v>
       </c>
-      <c r="AI15" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI15" s="22">
+        <f t="shared" si="10"/>
         <v>0.67326606719174098</v>
       </c>
-      <c r="AJ15" s="24">
+      <c r="AJ15">
         <v>3.5</v>
       </c>
-      <c r="AK15" s="24">
+      <c r="AK15">
         <v>1.6583123951776999</v>
       </c>
-      <c r="AL15" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL15" s="22">
+        <f t="shared" si="11"/>
         <v>0.47380354147934284</v>
       </c>
-      <c r="AM15" s="24">
+      <c r="AM15">
         <v>3.5</v>
       </c>
-      <c r="AN15" s="24">
+      <c r="AN15">
         <v>0.5</v>
       </c>
-      <c r="AO15" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO15" s="22">
+        <f t="shared" si="12"/>
         <v>0.14285714285714285</v>
       </c>
+      <c r="AR15" s="2">
+        <v>3</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AU15" s="37">
+        <v>4</v>
+      </c>
+      <c r="AV15" s="43">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="AW15" s="40">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX15" s="46">
+        <f t="shared" si="14"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AY15" s="51">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AZ15" s="52">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="BA15" s="51">
+        <f>AV15-AW15</f>
+        <v>3</v>
+      </c>
+      <c r="BB15" s="52">
+        <f>AV15+AW15</f>
+        <v>4</v>
+      </c>
+      <c r="BC15" s="47"/>
+      <c r="BD15" s="48"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>26</v>
+      <c r="G16" s="1">
+        <v>0</v>
       </c>
       <c r="H16" s="13">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>1.25</v>
       </c>
       <c r="I16" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.1650635094610968</v>
       </c>
       <c r="J16" s="1">
         <v>3</v>
@@ -10101,11 +7075,11 @@
         <v>16</v>
       </c>
       <c r="N16" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.75</v>
       </c>
       <c r="O16" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9341582431527637</v>
       </c>
       <c r="P16" s="1">
@@ -10121,11 +7095,11 @@
         <v>16</v>
       </c>
       <c r="T16" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
       <c r="U16" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6097722286464435</v>
       </c>
       <c r="V16" s="2">
@@ -10145,75 +7119,117 @@
         <v>8.5</v>
       </c>
       <c r="AA16" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="AD16" s="23">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="AE16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="24">
+        <v>2.1650635094610968</v>
+      </c>
+      <c r="AF16" s="22">
+        <f t="shared" si="9"/>
+        <v>1.7320508075688774</v>
+      </c>
+      <c r="AG16">
         <v>14.75</v>
       </c>
-      <c r="AH16" s="24">
+      <c r="AH16">
         <v>9.9341582431527637</v>
       </c>
-      <c r="AI16" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI16" s="22">
+        <f t="shared" si="10"/>
         <v>0.67350225377306872</v>
       </c>
-      <c r="AJ16" s="24">
+      <c r="AJ16">
         <v>9.5</v>
       </c>
-      <c r="AK16" s="24">
+      <c r="AK16">
         <v>4.6097722286464435</v>
       </c>
-      <c r="AL16" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL16" s="22">
+        <f t="shared" si="11"/>
         <v>0.48523918196278354</v>
       </c>
-      <c r="AM16" s="24">
+      <c r="AM16">
         <v>8.5</v>
       </c>
-      <c r="AN16" s="24">
+      <c r="AN16">
         <v>0.5</v>
       </c>
-      <c r="AO16" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO16" s="22">
+        <f t="shared" si="12"/>
         <v>5.8823529411764705E-2</v>
       </c>
+      <c r="AR16" s="2">
+        <v>9</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU16" s="37">
+        <v>8</v>
+      </c>
+      <c r="AV16" s="43">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="AW16" s="40">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX16" s="46">
+        <f t="shared" si="14"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="AY16" s="51">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AZ16" s="52">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="BA16" s="51">
+        <f>AV16-AW16</f>
+        <v>8</v>
+      </c>
+      <c r="BB16" s="52">
+        <f>AV16+AW16</f>
+        <v>9</v>
+      </c>
+      <c r="BC16" s="47"/>
+      <c r="BD16" s="48"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="18" t="e">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>5</v>
@@ -10228,11 +7244,11 @@
         <v>8</v>
       </c>
       <c r="N17" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.75</v>
       </c>
       <c r="O17" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0233692348577703</v>
       </c>
       <c r="P17" s="1">
@@ -10248,11 +7264,11 @@
         <v>12</v>
       </c>
       <c r="T17" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="U17" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5495097567963922</v>
       </c>
       <c r="V17" s="2">
@@ -10272,51 +7288,92 @@
         <v>8.75</v>
       </c>
       <c r="AA17" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4330127018922193</v>
       </c>
-      <c r="AD17" s="23" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE17" s="23" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF17" s="11" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG17" s="24">
+      <c r="AD17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <v>9.75</v>
       </c>
-      <c r="AH17" s="24">
+      <c r="AH17">
         <v>4.0233692348577703</v>
       </c>
-      <c r="AI17" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI17" s="22">
+        <f t="shared" si="10"/>
         <v>0.41265325485720722</v>
       </c>
-      <c r="AJ17" s="24">
+      <c r="AJ17">
         <v>9</v>
       </c>
-      <c r="AK17" s="24">
+      <c r="AK17">
         <v>2.5495097567963922</v>
       </c>
-      <c r="AL17" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL17" s="22">
+        <f t="shared" si="11"/>
         <v>0.28327886186626583</v>
       </c>
-      <c r="AM17" s="24">
+      <c r="AM17">
         <v>8.75</v>
       </c>
-      <c r="AN17" s="24">
+      <c r="AN17">
         <v>0.4330127018922193</v>
       </c>
-      <c r="AO17" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO17" s="22">
+        <f t="shared" si="12"/>
         <v>4.9487165930539347E-2</v>
       </c>
+      <c r="AR17" s="2">
+        <v>9</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>9</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>9</v>
+      </c>
+      <c r="AU17" s="37">
+        <v>8</v>
+      </c>
+      <c r="AV17" s="43">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="AW17" s="40">
+        <f t="shared" si="13"/>
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="AX17" s="46">
+        <f t="shared" si="14"/>
+        <v>4.9487165930539347E-2</v>
+      </c>
+      <c r="AY17" s="51">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AZ17" s="52">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="BA17" s="51">
+        <f>AV17-AW17</f>
+        <v>8.3169872981077813</v>
+      </c>
+      <c r="BB17" s="52">
+        <f>AV17+AW17</f>
+        <v>9.1830127018922187</v>
+      </c>
+      <c r="BC17" s="47"/>
+      <c r="BD17" s="48"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>10</v>
       </c>
@@ -10324,25 +7381,25 @@
       <c r="C18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>10</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
       <c r="I18" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4.3301270189221936</v>
       </c>
       <c r="J18" s="1">
         <v>15</v>
@@ -10357,11 +7414,11 @@
         <v>4</v>
       </c>
       <c r="N18" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.25</v>
       </c>
       <c r="O18" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0233692348577703</v>
       </c>
       <c r="P18" s="1">
@@ -10377,11 +7434,11 @@
         <v>4</v>
       </c>
       <c r="T18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.25</v>
       </c>
       <c r="U18" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9607448794387148</v>
       </c>
       <c r="V18" s="2">
@@ -10401,75 +7458,117 @@
         <v>11.75</v>
       </c>
       <c r="AA18" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.1650635094610968</v>
       </c>
       <c r="AD18" s="23">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="AE18" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="24">
+        <v>4.3301270189221936</v>
+      </c>
+      <c r="AF18" s="22">
+        <f t="shared" si="9"/>
+        <v>1.7320508075688774</v>
+      </c>
+      <c r="AG18">
         <v>10.25</v>
       </c>
-      <c r="AH18" s="24">
+      <c r="AH18">
         <v>4.0233692348577703</v>
       </c>
-      <c r="AI18" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI18" s="22">
+        <f t="shared" si="10"/>
         <v>0.39252382779100198</v>
       </c>
-      <c r="AJ18" s="24">
+      <c r="AJ18">
         <v>9.25</v>
       </c>
-      <c r="AK18" s="24">
+      <c r="AK18">
         <v>3.9607448794387148</v>
       </c>
-      <c r="AL18" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL18" s="22">
+        <f t="shared" si="11"/>
         <v>0.4281886356149962</v>
       </c>
-      <c r="AM18" s="24">
+      <c r="AM18">
         <v>11.75</v>
       </c>
-      <c r="AN18" s="24">
+      <c r="AN18">
         <v>2.1650635094610968</v>
       </c>
-      <c r="AO18" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO18" s="22">
+        <f t="shared" si="12"/>
         <v>0.18426072420945505</v>
       </c>
+      <c r="AR18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>12</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>11</v>
+      </c>
+      <c r="AU18" s="37">
+        <v>9</v>
+      </c>
+      <c r="AV18" s="43">
+        <f t="shared" si="1"/>
+        <v>11.75</v>
+      </c>
+      <c r="AW18" s="40">
+        <f t="shared" si="13"/>
+        <v>2.1650635094610968</v>
+      </c>
+      <c r="AX18" s="46">
+        <f t="shared" si="14"/>
+        <v>0.18426072420945505</v>
+      </c>
+      <c r="AY18" s="51">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="AZ18" s="52">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="BA18" s="51">
+        <f>AV18-AW18</f>
+        <v>9.5849364905389027</v>
+      </c>
+      <c r="BB18" s="52">
+        <f>AV18+AW18</f>
+        <v>13.915063509461097</v>
+      </c>
+      <c r="BC18" s="47"/>
+      <c r="BD18" s="48"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
       <c r="C19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>12</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>26</v>
+      <c r="G19" s="1">
+        <v>0</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I19" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.196152422706632</v>
       </c>
       <c r="J19" s="1">
         <v>3</v>
@@ -10484,11 +7583,11 @@
         <v>8</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.25</v>
       </c>
       <c r="O19" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.0843136576523769</v>
       </c>
       <c r="P19" s="1">
@@ -10504,11 +7603,11 @@
         <v>8</v>
       </c>
       <c r="T19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.75</v>
       </c>
       <c r="U19" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0310889132455352</v>
       </c>
       <c r="V19" s="2">
@@ -10528,77 +7627,117 @@
         <v>8.75</v>
       </c>
       <c r="AA19" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.82915619758884995</v>
       </c>
       <c r="AD19" s="23">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="24">
+        <v>5.196152422706632</v>
+      </c>
+      <c r="AF19" s="22">
+        <f t="shared" si="9"/>
+        <v>1.7320508075688774</v>
+      </c>
+      <c r="AG19">
         <v>10.25</v>
       </c>
-      <c r="AH19" s="24">
+      <c r="AH19">
         <v>7.0843136576523769</v>
       </c>
-      <c r="AI19" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI19" s="22">
+        <f t="shared" si="10"/>
         <v>0.69115255196608549</v>
       </c>
-      <c r="AJ19" s="24">
+      <c r="AJ19">
         <v>9.75</v>
       </c>
-      <c r="AK19" s="24">
+      <c r="AK19">
         <v>3.0310889132455352</v>
       </c>
-      <c r="AL19" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL19" s="22">
+        <f t="shared" si="11"/>
         <v>0.31088091417902924</v>
       </c>
-      <c r="AM19" s="24">
+      <c r="AM19">
         <v>8.75</v>
       </c>
-      <c r="AN19" s="24">
+      <c r="AN19">
         <v>0.82915619758884995</v>
       </c>
-      <c r="AO19" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO19" s="22">
+        <f t="shared" si="12"/>
         <v>9.4760708295868565E-2</v>
       </c>
+      <c r="AR19" s="2">
+        <v>8</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>10</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>8</v>
+      </c>
+      <c r="AU19" s="37">
+        <v>9</v>
+      </c>
+      <c r="AV19" s="43">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="AW19" s="40">
+        <f t="shared" si="13"/>
+        <v>0.82915619758884995</v>
+      </c>
+      <c r="AX19" s="46">
+        <f t="shared" si="14"/>
+        <v>9.4760708295868565E-2</v>
+      </c>
+      <c r="AY19" s="51">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AZ19" s="52">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="BA19" s="51">
+        <f>AV19-AW19</f>
+        <v>7.9208438024111505</v>
+      </c>
+      <c r="BB19" s="52">
+        <f>AV19+AW19</f>
+        <v>9.5791561975888495</v>
+      </c>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="48"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="34" t="s">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>11</v>
       </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="1">
         <v>38</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>26</v>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>9.5</v>
       </c>
       <c r="I20" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>16.454482671904334</v>
       </c>
       <c r="J20" s="1">
         <v>38</v>
@@ -10613,11 +7752,11 @@
         <v>8</v>
       </c>
       <c r="N20" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="O20" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.68857754044952</v>
       </c>
       <c r="P20" s="1">
@@ -10633,11 +7772,11 @@
         <v>20</v>
       </c>
       <c r="T20" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="U20" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.0710678118654755</v>
       </c>
       <c r="V20" s="2">
@@ -10657,75 +7796,117 @@
         <v>30.75</v>
       </c>
       <c r="AA20" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.299038105676658</v>
       </c>
       <c r="AD20" s="23">
-        <v>38</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="24">
+        <v>16.454482671904334</v>
+      </c>
+      <c r="AF20" s="22">
+        <f t="shared" si="9"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="AG20">
         <v>29</v>
       </c>
-      <c r="AH20" s="24">
+      <c r="AH20">
         <v>12.68857754044952</v>
       </c>
-      <c r="AI20" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI20" s="22">
+        <f t="shared" si="10"/>
         <v>0.43753715656722486</v>
       </c>
-      <c r="AJ20" s="24">
+      <c r="AJ20">
         <v>30</v>
       </c>
-      <c r="AK20" s="24">
+      <c r="AK20">
         <v>7.0710678118654755</v>
       </c>
-      <c r="AL20" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL20" s="22">
+        <f t="shared" si="11"/>
         <v>0.23570226039551584</v>
       </c>
-      <c r="AM20" s="24">
+      <c r="AM20">
         <v>30.75</v>
       </c>
-      <c r="AN20" s="24">
+      <c r="AN20">
         <v>1.299038105676658</v>
       </c>
-      <c r="AO20" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO20" s="22">
+        <f t="shared" si="12"/>
         <v>4.22451416480214E-2</v>
       </c>
+      <c r="AR20" s="2">
+        <v>30</v>
+      </c>
+      <c r="AS20" s="3">
+        <v>30</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>33</v>
+      </c>
+      <c r="AU20" s="37">
+        <v>30</v>
+      </c>
+      <c r="AV20" s="43">
+        <f t="shared" si="1"/>
+        <v>30.75</v>
+      </c>
+      <c r="AW20" s="40">
+        <f t="shared" si="13"/>
+        <v>1.299038105676658</v>
+      </c>
+      <c r="AX20" s="46">
+        <f t="shared" si="14"/>
+        <v>4.22451416480214E-2</v>
+      </c>
+      <c r="AY20" s="51">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="AZ20" s="52">
+        <f t="shared" si="16"/>
+        <v>33</v>
+      </c>
+      <c r="BA20" s="51">
+        <f>AV20-AW20</f>
+        <v>29.450961894323342</v>
+      </c>
+      <c r="BB20" s="52">
+        <f>AV20+AW20</f>
+        <v>32.049038105676658</v>
+      </c>
+      <c r="BC20" s="47"/>
+      <c r="BD20" s="48"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>12</v>
       </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="1">
         <v>10</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>26</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>10.63014581273465</v>
       </c>
       <c r="J21" s="1">
         <v>20</v>
@@ -10740,11 +7921,11 @@
         <v>24</v>
       </c>
       <c r="N21" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24.75</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.754901018824098</v>
       </c>
       <c r="P21" s="1">
@@ -10760,11 +7941,11 @@
         <v>24</v>
       </c>
       <c r="T21" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.25</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2618912949622967</v>
       </c>
       <c r="V21" s="2">
@@ -10784,142 +7965,184 @@
         <v>19.5</v>
       </c>
       <c r="AA21" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8722813232690143</v>
       </c>
       <c r="AD21" s="23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE21" s="23">
-        <v>8</v>
-      </c>
-      <c r="AF21" s="11">
-        <f t="shared" si="8"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="AG21" s="24">
+        <v>10.63014581273465</v>
+      </c>
+      <c r="AF21" s="22">
+        <f t="shared" si="9"/>
+        <v>1.1811273125260722</v>
+      </c>
+      <c r="AG21">
         <v>24.75</v>
       </c>
-      <c r="AH21" s="24">
+      <c r="AH21">
         <v>12.754901018824098</v>
       </c>
-      <c r="AI21" s="11">
-        <f t="shared" si="9"/>
+      <c r="AI21" s="22">
+        <f t="shared" si="10"/>
         <v>0.51534953611410494</v>
       </c>
-      <c r="AJ21" s="24">
+      <c r="AJ21">
         <v>17.25</v>
       </c>
-      <c r="AK21" s="24">
+      <c r="AK21">
         <v>5.2618912949622967</v>
       </c>
-      <c r="AL21" s="11">
-        <f t="shared" si="10"/>
+      <c r="AL21" s="22">
+        <f t="shared" si="11"/>
         <v>0.30503717651955342</v>
       </c>
-      <c r="AM21" s="24">
+      <c r="AM21">
         <v>19.5</v>
       </c>
-      <c r="AN21" s="24">
+      <c r="AN21">
         <v>2.8722813232690143</v>
       </c>
-      <c r="AO21" s="11">
-        <f t="shared" si="11"/>
+      <c r="AO21" s="22">
+        <f t="shared" si="12"/>
         <v>0.14729647811635971</v>
       </c>
+      <c r="AR21" s="2">
+        <v>17</v>
+      </c>
+      <c r="AS21" s="3">
+        <v>20</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>17</v>
+      </c>
+      <c r="AU21" s="37">
+        <v>24</v>
+      </c>
+      <c r="AV21" s="43">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="AW21" s="40">
+        <f t="shared" si="13"/>
+        <v>2.8722813232690143</v>
+      </c>
+      <c r="AX21" s="46">
+        <f t="shared" si="14"/>
+        <v>0.14729647811635971</v>
+      </c>
+      <c r="AY21" s="51">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="AZ21" s="52">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="BA21" s="51">
+        <f>AV21-AW21</f>
+        <v>16.627718676730986</v>
+      </c>
+      <c r="BB21" s="52">
+        <f>AV21+AW21</f>
+        <v>22.372281323269014</v>
+      </c>
+      <c r="BC21" s="47"/>
+      <c r="BD21" s="48"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="11">
         <f>SUM(D3:D21)</f>
         <v>207</v>
       </c>
       <c r="E22" s="11">
-        <f t="shared" ref="E22:Y22" si="12">SUM(E3:E21)</f>
+        <f t="shared" ref="E22:Y22" si="17">SUM(E3:E21)</f>
         <v>219</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>131</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>166</v>
       </c>
       <c r="H22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180.75</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.802119188348286</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>188</v>
       </c>
       <c r="K22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>255</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>515</v>
       </c>
       <c r="M22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>196</v>
       </c>
       <c r="N22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>288.5</v>
       </c>
       <c r="O22" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>133.30510117771186</v>
       </c>
       <c r="P22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>200</v>
       </c>
       <c r="Q22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>235</v>
       </c>
       <c r="R22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>300</v>
       </c>
       <c r="S22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>240</v>
       </c>
       <c r="T22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>243.75</v>
       </c>
       <c r="U22" s="11">
-        <f t="shared" ref="U22" si="13">STDEV(P22:T22)</f>
+        <f t="shared" ref="U22" si="18">STDEV(P22:T22)</f>
         <v>35.947009611371016</v>
       </c>
       <c r="V22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>224</v>
       </c>
       <c r="W22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>242</v>
       </c>
       <c r="X22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>239</v>
       </c>
       <c r="Y22" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>242</v>
       </c>
       <c r="Z22" s="12">
@@ -10927,60 +8150,64 @@
         <v>236.75</v>
       </c>
       <c r="AA22" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.46240577829965</v>
       </c>
-      <c r="AD22" s="26">
-        <f>H22</f>
-        <v>180.75</v>
-      </c>
-      <c r="AE22" s="26">
-        <f>I22</f>
-        <v>34.802119188348286</v>
-      </c>
-      <c r="AF22" s="25">
-        <f t="shared" si="8"/>
-        <v>0.19254284474881486</v>
-      </c>
-      <c r="AG22" s="26">
-        <f>N22</f>
-        <v>288.5</v>
-      </c>
-      <c r="AH22" s="26">
-        <f>O22</f>
-        <v>133.30510117771186</v>
-      </c>
-      <c r="AI22" s="25">
-        <f t="shared" si="9"/>
-        <v>0.46206274238374995</v>
-      </c>
-      <c r="AJ22" s="26">
-        <f>T22</f>
-        <v>243.75</v>
-      </c>
-      <c r="AK22" s="26">
-        <f>U22</f>
-        <v>35.947009611371016</v>
-      </c>
-      <c r="AL22" s="25">
-        <f t="shared" si="10"/>
-        <v>0.14747491122613751</v>
-      </c>
-      <c r="AM22" s="26">
-        <f>Z22</f>
+      <c r="AR22" s="11">
+        <f t="shared" ref="AR22:AW22" si="19">SUM(AR3:AR21)</f>
+        <v>224</v>
+      </c>
+      <c r="AS22" s="11">
+        <f t="shared" si="19"/>
+        <v>242</v>
+      </c>
+      <c r="AT22" s="11">
+        <f t="shared" si="19"/>
+        <v>239</v>
+      </c>
+      <c r="AU22" s="38">
+        <f t="shared" si="19"/>
+        <v>242</v>
+      </c>
+      <c r="AV22" s="44">
+        <f t="shared" si="1"/>
         <v>236.75</v>
       </c>
-      <c r="AN22" s="26">
-        <f>AA22</f>
+      <c r="AW22" s="41">
+        <f t="shared" si="13"/>
         <v>7.46240577829965</v>
       </c>
-      <c r="AO22" s="25">
-        <f t="shared" si="11"/>
+      <c r="AX22" s="38">
+        <f t="shared" si="14"/>
         <v>3.152019336135016E-2</v>
+      </c>
+      <c r="AY22" s="53">
+        <f>SUM(AY3:AY21)</f>
+        <v>211</v>
+      </c>
+      <c r="AZ22" s="54">
+        <f t="shared" ref="AZ22" si="20">SUM(AZ3:AZ21)</f>
+        <v>265</v>
+      </c>
+      <c r="BA22" s="53">
+        <f>SUM(BA3:BA21)</f>
+        <v>214.98144687353312</v>
+      </c>
+      <c r="BB22" s="54">
+        <f>SUM(BB3:BB21)</f>
+        <v>258.51855312646688</v>
+      </c>
+      <c r="BC22" s="55">
+        <f>MIN(AR22:AU22)</f>
+        <v>224</v>
+      </c>
+      <c r="BD22" s="56">
+        <f>MAX(AR22:AU22)</f>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AO1"/>
@@ -10990,11 +8217,12 @@
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="V1:AA1"/>
     <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A20:B21"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -11005,4 +8233,171 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003D11B8-8A9E-4135-AF25-65C4CF8DB8F0}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <f t="array" ref="B2:F2">Лист1!D22:H22</f>
+        <v>207</v>
+      </c>
+      <c r="C2">
+        <v>219</v>
+      </c>
+      <c r="D2">
+        <v>131</v>
+      </c>
+      <c r="E2">
+        <v>166</v>
+      </c>
+      <c r="F2">
+        <v>180.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <f t="array" ref="B3:F3">Лист1!J22:N22</f>
+        <v>188</v>
+      </c>
+      <c r="C3">
+        <v>255</v>
+      </c>
+      <c r="D3">
+        <v>515</v>
+      </c>
+      <c r="E3">
+        <v>196</v>
+      </c>
+      <c r="F3">
+        <v>288.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f t="array" ref="B4:F4">Лист1!P22:T22</f>
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>235</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>240</v>
+      </c>
+      <c r="F4">
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <f t="array" ref="B5:F5">Лист1!V22:Z22</f>
+        <v>224</v>
+      </c>
+      <c r="C5">
+        <v>242</v>
+      </c>
+      <c r="D5">
+        <v>239</v>
+      </c>
+      <c r="E5">
+        <v>242</v>
+      </c>
+      <c r="F5">
+        <v>236.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <f>CORREL(B2:B5,$F$2:$F$5)</f>
+        <v>-0.51443044816813488</v>
+      </c>
+      <c r="C6">
+        <f>CORREL(C2:C5,$F$2:$F$5)</f>
+        <v>0.96719580421996676</v>
+      </c>
+      <c r="D6">
+        <f>CORREL(D2:D5,$F$2:$F$5)</f>
+        <v>0.96070112786307071</v>
+      </c>
+      <c r="E6">
+        <f>CORREL(E2:E5,$F$2:$F$5)</f>
+        <v>0.39946914178443543</v>
+      </c>
+      <c r="F6">
+        <f>CORREL(F2:F5,$F$2:$F$5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <f>CORREL(B3:B5,$F$3:$F$5)</f>
+        <v>-0.83164197576409782</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:F7" si="0">CORREL(C3:C5,$F$3:$F$5)</f>
+        <v>0.88833893947234055</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.99622088594940028</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-0.9962599070242667</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>